--- a/SampleApp/模版/Sample01_1.xlsx
+++ b/SampleApp/模版/Sample01_1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDF7D87-77E5-4348-8348-DAF73EF1AE0B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B4B8A3-7944-406F-B687-E7FD78D37F81}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="7815" windowWidth="21150" windowHeight="12495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,14 @@
   </si>
   <si>
     <t>$thTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉字1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉字2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -62,7 +70,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="000000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,16 +96,35 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -102,15 +132,90 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -204,7 +309,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="CCEDC7"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -459,59 +564,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="14"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="8" t="s">
         <v>7</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+  <mergeCells count="5">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SampleApp/模版/Sample01_1.xlsx
+++ b/SampleApp/模版/Sample01_1.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B4B8A3-7944-406F-B687-E7FD78D37F81}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8469EA7E-7C05-4EE9-B632-1D8D8E28D59C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="7815" windowWidth="21150" windowHeight="12495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5355" yWindow="3465" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,7 +74,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +102,29 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -188,34 +212,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -309,7 +347,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCEDC7"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -564,81 +602,161 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.125" customWidth="1"/>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="14"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A967D42F-DB64-4370-88E9-4AE1988FFFBB}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="4"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="15"/>
+      <c r="F3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="5" t="s">
+      <c r="G3" s="17"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="A1:H1"/>
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:H2"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SampleApp/模版/Sample01_1.xlsx
+++ b/SampleApp/模版/Sample01_1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8469EA7E-7C05-4EE9-B632-1D8D8E28D59C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5355" yWindow="3465" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5355" yWindow="3465" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="基本填充" sheetId="4" r:id="rId1"/>
+    <sheet name="带有标题行的填充" sheetId="3" r:id="rId2"/>
+    <sheet name="带标题行且填充列有间隔" sheetId="1" r:id="rId3"/>
+    <sheet name="带标题行且填充列是单行多列的合并单元格" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="12">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,13 +65,17 @@
   </si>
   <si>
     <t>汉字2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
@@ -212,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -220,6 +225,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -254,6 +285,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -601,11 +653,124 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -619,45 +784,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="8"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="8"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="12" t="s">
         <v>7</v>
       </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="14"/>
       <c r="I3" s="3" t="s">
         <v>9</v>
       </c>
@@ -675,12 +848,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A967D42F-DB64-4370-88E9-4AE1988FFFBB}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -694,53 +867,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="8"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="12"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="22"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="14" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16" t="s">
+      <c r="E3" s="25"/>
+      <c r="F3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="18"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
       <c r="I3" s="3" t="s">
         <v>9</v>
       </c>
